--- a/data/trans_dic/P08_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P08_1_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1875858200074389</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.148785237050386</v>
+        <v>0.1487852370503861</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1835589422520567</v>
@@ -697,7 +697,7 @@
         <v>0.2337458071883221</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1656030758856683</v>
+        <v>0.1656030758856684</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08324977174636018</v>
+        <v>0.08361181760859317</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1244177312991099</v>
+        <v>0.1242229662304165</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1425650994693838</v>
+        <v>0.1459120432227053</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1145268930912321</v>
+        <v>0.1146994436472894</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1368770028084597</v>
+        <v>0.1376745072596959</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2337176867630513</v>
+        <v>0.2312743584190763</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2308668315168397</v>
+        <v>0.2321811808574256</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1521336336593688</v>
+        <v>0.1522378942246178</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1232643825368194</v>
+        <v>0.119942582357811</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1902716417185344</v>
+        <v>0.1884279970490676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1990922407442767</v>
+        <v>0.2011545928133568</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1447924197836198</v>
+        <v>0.1418392812587935</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1635069539567597</v>
+        <v>0.1610955003784681</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2122658882219016</v>
+        <v>0.2147448070793371</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2385696679177762</v>
+        <v>0.2385482130128816</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.186428117303664</v>
+        <v>0.1913534797657766</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2358596233412552</v>
+        <v>0.2353633302964609</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3462713782837213</v>
+        <v>0.3471911898482536</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3368572016100658</v>
+        <v>0.3414865758031193</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2148836077860237</v>
+        <v>0.2174788938102062</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1849234741093014</v>
+        <v>0.1842367005489834</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2635181056342928</v>
+        <v>0.2623185640405106</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2750121407137522</v>
+        <v>0.272727859748926</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1893184763072568</v>
+        <v>0.1902767805439796</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09312119757305919</v>
+        <v>0.09348342474261821</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1170610199008939</v>
+        <v>0.1160909762111826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09520007770249071</v>
+        <v>0.09288144723336021</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1268500031358234</v>
+        <v>0.1321693432617358</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2062527932469123</v>
+        <v>0.2085605370870745</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2366697608440694</v>
+        <v>0.2393986557779014</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1750510086031577</v>
+        <v>0.1724118943185891</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2059295817948832</v>
+        <v>0.2050287597753296</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1609801593808858</v>
+        <v>0.1592631690853954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1859850101975154</v>
+        <v>0.1892343081116819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1421622441635215</v>
+        <v>0.1438217148194082</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1767531060549832</v>
+        <v>0.1764282426836544</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1515670483237129</v>
+        <v>0.1551229945966242</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1881711551749632</v>
+        <v>0.1878735781297211</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1538802581694307</v>
+        <v>0.1534237017179525</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1977531991591327</v>
+        <v>0.1993806894095783</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2847020534504204</v>
+        <v>0.2852894987685369</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3212619738438298</v>
+        <v>0.3154629485239567</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2498064413652785</v>
+        <v>0.2497491987883093</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2660411012165605</v>
+        <v>0.2648590818967925</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2070670253582445</v>
+        <v>0.2065121340466751</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.240647983887109</v>
+        <v>0.2398745561027229</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1915467948172811</v>
+        <v>0.1922443756216086</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2233925927447138</v>
+        <v>0.2226943730986706</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1670815501124961</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1634920329382732</v>
+        <v>0.1634920329382731</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0469777785736777</v>
+        <v>0.04909577791374033</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1087329472545571</v>
+        <v>0.1086350841239027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09917063170665999</v>
+        <v>0.1056633628013303</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09795059064399587</v>
+        <v>0.09852922936914681</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1675700667478653</v>
+        <v>0.1739701213021848</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1905320297334238</v>
+        <v>0.1853868835287491</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1510353157871162</v>
+        <v>0.157107398797521</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1647129533676312</v>
+        <v>0.1652660768982765</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1222267491244408</v>
+        <v>0.1189275873341086</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1606903117119238</v>
+        <v>0.1610972465380519</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1405869263263828</v>
+        <v>0.1394615283645124</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1390216215432618</v>
+        <v>0.1423453948945374</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1070436927484555</v>
+        <v>0.1085597681880468</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1901691751055489</v>
+        <v>0.1886230912994429</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1758459362063932</v>
+        <v>0.1775997945260972</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1617886922474905</v>
+        <v>0.1620429724674519</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2593686586325414</v>
+        <v>0.2610380768055846</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2799182542605122</v>
+        <v>0.2825914706427861</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2440278313262009</v>
+        <v>0.2489211460842785</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2274673608366657</v>
+        <v>0.2292740406405003</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1755821856742461</v>
+        <v>0.1742333898048877</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2226108317869879</v>
+        <v>0.2215515623451853</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2013088611203306</v>
+        <v>0.1979671488896959</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1871493344978918</v>
+        <v>0.1869363924613673</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06621693654702449</v>
+        <v>0.06431518685325266</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1100867702939665</v>
+        <v>0.1111368879168081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1087851304726876</v>
+        <v>0.1074043864179596</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1413723965590372</v>
+        <v>0.137379911725844</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1640531474333672</v>
+        <v>0.1660680865797337</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2565213047576252</v>
+        <v>0.2598927234591957</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2174315724255176</v>
+        <v>0.2199626409138223</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1880983275384085</v>
+        <v>0.1906976383164778</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1262473977971685</v>
+        <v>0.1262401810117419</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1952634270967287</v>
+        <v>0.1992216997344767</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1737838997458616</v>
+        <v>0.175510220610083</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.175592714345542</v>
+        <v>0.1740952209233003</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1244996816871491</v>
+        <v>0.1273507236681322</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1840849011437292</v>
+        <v>0.1874973142244186</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1827831604546079</v>
+        <v>0.1810677671265725</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2335332204156209</v>
+        <v>0.2310083185532886</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2460240763572385</v>
+        <v>0.246552118424786</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3536948385019923</v>
+        <v>0.357701383158287</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3100383786190624</v>
+        <v>0.313491599128681</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2555072042356901</v>
+        <v>0.2550761029319524</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1751498247440616</v>
+        <v>0.1776650444777428</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2599889403392776</v>
+        <v>0.2583738451977385</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2334165803723851</v>
+        <v>0.2376341145938448</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.228877176538987</v>
+        <v>0.2302396839067848</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1266113701689474</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1127023981026185</v>
+        <v>0.1127023981026184</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1671653867856973</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04295269050515303</v>
+        <v>0.04322289880121303</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1172200958691605</v>
+        <v>0.1153667175960865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08785873881091393</v>
+        <v>0.08573233134230114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08054233675105836</v>
+        <v>0.08030464699700611</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1227040038340284</v>
+        <v>0.1211452600172059</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2241146240930612</v>
+        <v>0.2230941113746545</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1644498222930475</v>
+        <v>0.1704759032592038</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1974280118156684</v>
+        <v>0.1922594781637102</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09242590005792246</v>
+        <v>0.09311978825989431</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1868468887536027</v>
+        <v>0.1879252570506739</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1397646436625613</v>
+        <v>0.1431706454350264</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1494327362921723</v>
+        <v>0.148781744145442</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1137335738869307</v>
+        <v>0.1122988376673115</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2240110761524684</v>
+        <v>0.2187501905353092</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1746267281395257</v>
+        <v>0.1753532446018313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1490549375052765</v>
+        <v>0.1501698412764461</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2312507324216855</v>
+        <v>0.2271346919054707</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3540516762168969</v>
+        <v>0.3503032050960321</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2840622240130933</v>
+        <v>0.2815046169181701</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2707844260903309</v>
+        <v>0.2671031214474847</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1569641654444034</v>
+        <v>0.1559087674372906</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2651636310939781</v>
+        <v>0.2683970150795081</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2106877216546457</v>
+        <v>0.2203763035222601</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1999831859940623</v>
+        <v>0.1991536202030896</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3106937706827756</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.167272408199933</v>
+        <v>0.1672724081999329</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1796745356838831</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07427865940224491</v>
+        <v>0.0747112753591751</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1372633476187262</v>
+        <v>0.1385727286085384</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1555574835662502</v>
+        <v>0.1569282003664293</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07757740291639216</v>
+        <v>0.07669696568060978</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1983143941491529</v>
+        <v>0.1970043146837931</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2227893106837533</v>
+        <v>0.2213701518043904</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2582695679470545</v>
+        <v>0.2491593509999141</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1394140683126321</v>
+        <v>0.1386714685116017</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1469910194720808</v>
+        <v>0.150146254720789</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1935942311041015</v>
+        <v>0.1934099500730787</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2222961765770718</v>
+        <v>0.2230756767732487</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1142714797965494</v>
+        <v>0.1114886158972175</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1481563238139685</v>
+        <v>0.143807335844324</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2327698441726903</v>
+        <v>0.2345948260969843</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2566515228986235</v>
+        <v>0.2594818079037727</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1300777928417211</v>
+        <v>0.134858218268004</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.303201457722256</v>
+        <v>0.3070841362809906</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3266074896784467</v>
+        <v>0.3286692076563157</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3699800636923508</v>
+        <v>0.3715800268161159</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2006472196436752</v>
+        <v>0.2026105874772947</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2134586546299985</v>
+        <v>0.2131406536218878</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2664011803924557</v>
+        <v>0.2617293319198195</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3011875335788292</v>
+        <v>0.2971004347150001</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1589104284671534</v>
+        <v>0.154852429627193</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.174837018170541</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2061070762999041</v>
+        <v>0.2061070762999042</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09997324274751127</v>
+        <v>0.09618610877011864</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09507897980661043</v>
+        <v>0.09722291915304715</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1093705347749317</v>
+        <v>0.1083823100872622</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1378743161328853</v>
+        <v>0.1331310948229164</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1829069747930425</v>
+        <v>0.1826458170081134</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2034016023264394</v>
+        <v>0.2012576733810399</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1822465137832902</v>
+        <v>0.1824620538942836</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2198713564058418</v>
+        <v>0.2182265599084547</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.148589880524321</v>
+        <v>0.1487061250546985</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1612121883558817</v>
+        <v>0.1611052279375337</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1541335301588052</v>
+        <v>0.1534889939600192</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1866904587388313</v>
+        <v>0.1864458187577007</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1525655199192911</v>
+        <v>0.1488966383595449</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1491319913596109</v>
+        <v>0.1512065676784619</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1664017099290086</v>
+        <v>0.1644279740393435</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1958780868169972</v>
+        <v>0.1964312241641801</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2460667172982162</v>
+        <v>0.2497376985363866</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2713935285217375</v>
+        <v>0.2687402801021365</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2477499606630413</v>
+        <v>0.2477237588946537</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2722121222151052</v>
+        <v>0.2717680400219369</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1897287894153569</v>
+        <v>0.1902077101449441</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2037803540498701</v>
+        <v>0.2034972530156265</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1982351344760034</v>
+        <v>0.1970548741633985</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2282539472695829</v>
+        <v>0.2263873316673982</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.106198033847019</v>
+        <v>0.1069676423194839</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1162515995947315</v>
+        <v>0.1184173273172938</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09528701551329713</v>
+        <v>0.09451023056975265</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1069989981360073</v>
+        <v>0.1082427583615923</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1804920049471641</v>
+        <v>0.1827432812056503</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1850756465705504</v>
+        <v>0.1845078750939679</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1653611323860378</v>
+        <v>0.168230626756452</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2124842160103268</v>
+        <v>0.2132050012631641</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1530730990136406</v>
+        <v>0.1530087963916035</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1595205790900318</v>
+        <v>0.1594551523697817</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1398021444525964</v>
+        <v>0.1381993769304792</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1679245630080465</v>
+        <v>0.1673102509842465</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1546341334818229</v>
+        <v>0.1552809401768158</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1695808772491096</v>
+        <v>0.1704415294506411</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1396136192963862</v>
+        <v>0.1419064340567082</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1528718430016633</v>
+        <v>0.1521208773545731</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.241473495338012</v>
+        <v>0.2405470798973837</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2442474952753952</v>
+        <v>0.244284023536891</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2243127359308502</v>
+        <v>0.2298401675793568</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2640113159314554</v>
+        <v>0.2628634418841079</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.191237028911324</v>
+        <v>0.1905654991901993</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1980420257619946</v>
+        <v>0.1979121925198485</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1774553526677275</v>
+        <v>0.1757325078164148</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2011473268538826</v>
+        <v>0.2013382202022288</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1011213096550682</v>
+        <v>0.1014001355431035</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.135658691816509</v>
+        <v>0.1334273478283065</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1278860683030762</v>
+        <v>0.1264990985291969</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1334884260398892</v>
+        <v>0.1337342598383922</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2002753438376749</v>
+        <v>0.2025992939548414</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2393459071303144</v>
+        <v>0.2379967070021507</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2129777440911739</v>
+        <v>0.2111016324333862</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2114499404722376</v>
+        <v>0.2109039134789336</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1548568039672117</v>
+        <v>0.1552707767782657</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1910438140241653</v>
+        <v>0.1913351664282692</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1732995289098441</v>
+        <v>0.1733610084496658</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1768177039552378</v>
+        <v>0.1764315771655129</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1226355675215334</v>
+        <v>0.1226101072644325</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1608382411302677</v>
+        <v>0.1592762756828556</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1511042882178069</v>
+        <v>0.1508598685778452</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1572366495413056</v>
+        <v>0.1572356640805934</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.228585298546577</v>
+        <v>0.2301422573582375</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2692585622680434</v>
+        <v>0.2684102749537558</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2408640631379693</v>
+        <v>0.2416316425710842</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2330756651412099</v>
+        <v>0.2324691972835762</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1729332509087108</v>
+        <v>0.1728210640319993</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2109624468616828</v>
+        <v>0.2107990340238107</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1935322187205483</v>
+        <v>0.1924570061218403</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1931830534243041</v>
+        <v>0.1927015974805429</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22728</v>
+        <v>22827</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36671</v>
+        <v>36613</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>41880</v>
+        <v>42863</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36516</v>
+        <v>36571</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>35703</v>
+        <v>35911</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>67134</v>
+        <v>66432</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>66652</v>
+        <v>67031</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>48084</v>
+        <v>48116</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>65804</v>
+        <v>64031</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>110735</v>
+        <v>109662</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>115964</v>
+        <v>117165</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>91930</v>
+        <v>90055</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>44639</v>
+        <v>43981</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>62563</v>
+        <v>63293</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>70082</v>
+        <v>70076</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59442</v>
+        <v>61012</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>61521</v>
+        <v>61392</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>99465</v>
+        <v>99729</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>97252</v>
+        <v>98588</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>67916</v>
+        <v>68737</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>98721</v>
+        <v>98354</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>153363</v>
+        <v>152665</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>160185</v>
+        <v>158854</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>120199</v>
+        <v>120808</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>45916</v>
+        <v>46094</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>59178</v>
+        <v>58687</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47845</v>
+        <v>46680</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>67313</v>
+        <v>70135</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>103941</v>
+        <v>105104</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>123959</v>
+        <v>125389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>91566</v>
+        <v>90186</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>112539</v>
+        <v>112047</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>160501</v>
+        <v>158789</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>191433</v>
+        <v>194777</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>145810</v>
+        <v>147512</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>190388</v>
+        <v>190038</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>74734</v>
+        <v>76487</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>95126</v>
+        <v>94975</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>77336</v>
+        <v>77107</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>104937</v>
+        <v>105801</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>143475</v>
+        <v>143771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>168266</v>
+        <v>165228</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>130670</v>
+        <v>130640</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>145390</v>
+        <v>144744</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>206451</v>
+        <v>205898</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>247697</v>
+        <v>246901</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>196462</v>
+        <v>197177</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>240625</v>
+        <v>239873</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14979</v>
+        <v>15654</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>35234</v>
+        <v>35203</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31592</v>
+        <v>33661</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>30952</v>
+        <v>31135</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>56205</v>
+        <v>58352</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>64975</v>
+        <v>63221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>50795</v>
+        <v>52837</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>58701</v>
+        <v>58898</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>79968</v>
+        <v>77809</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>106870</v>
+        <v>107140</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>92067</v>
+        <v>91330</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>93475</v>
+        <v>95709</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34130</v>
+        <v>34614</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61624</v>
+        <v>61123</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>56018</v>
+        <v>56577</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>51124</v>
+        <v>51204</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>86995</v>
+        <v>87555</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>95458</v>
+        <v>96369</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>82069</v>
+        <v>83714</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>81065</v>
+        <v>81709</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>114876</v>
+        <v>113994</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>148051</v>
+        <v>147346</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>131832</v>
+        <v>129644</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>125835</v>
+        <v>125691</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23750</v>
+        <v>23068</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>41170</v>
+        <v>41563</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40247</v>
+        <v>39736</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>52752</v>
+        <v>51263</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>60939</v>
+        <v>61687</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>99774</v>
+        <v>101086</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>84208</v>
+        <v>85188</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>79370</v>
+        <v>80467</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>92177</v>
+        <v>92171</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>148973</v>
+        <v>151993</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>131597</v>
+        <v>132905</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>139615</v>
+        <v>138424</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>44654</v>
+        <v>45677</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>68844</v>
+        <v>70121</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>67623</v>
+        <v>66989</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>87142</v>
+        <v>86200</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>91387</v>
+        <v>91583</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>137570</v>
+        <v>139128</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>120073</v>
+        <v>121410</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>107814</v>
+        <v>107632</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>127882</v>
+        <v>129718</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>198354</v>
+        <v>197122</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>176754</v>
+        <v>179948</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>181982</v>
+        <v>183065</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8733</v>
+        <v>8788</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24923</v>
+        <v>24529</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18558</v>
+        <v>18108</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16565</v>
+        <v>16516</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>25482</v>
+        <v>25158</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>49214</v>
+        <v>48989</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>35947</v>
+        <v>37264</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>45069</v>
+        <v>43889</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>37985</v>
+        <v>38270</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>80757</v>
+        <v>81223</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>60072</v>
+        <v>61536</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>64846</v>
+        <v>64563</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23123</v>
+        <v>22831</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>47629</v>
+        <v>46510</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>36885</v>
+        <v>37038</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30655</v>
+        <v>30885</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>48023</v>
+        <v>47169</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>77747</v>
+        <v>76923</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>62092</v>
+        <v>61533</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>61815</v>
+        <v>60975</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>64509</v>
+        <v>64075</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>114606</v>
+        <v>116004</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>90555</v>
+        <v>94719</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>86782</v>
+        <v>86422</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>20115</v>
+        <v>20233</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>37608</v>
+        <v>37966</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>40931</v>
+        <v>41291</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>21001</v>
+        <v>20762</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>55160</v>
+        <v>54796</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>62388</v>
+        <v>61991</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>70537</v>
+        <v>68049</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>36770</v>
+        <v>36575</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>80691</v>
+        <v>82424</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>107254</v>
+        <v>107151</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>119204</v>
+        <v>119622</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>61073</v>
+        <v>59586</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>40122</v>
+        <v>38945</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>63775</v>
+        <v>64275</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>67531</v>
+        <v>68276</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>35213</v>
+        <v>36507</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>84334</v>
+        <v>85414</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>91460</v>
+        <v>92038</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>101047</v>
+        <v>101484</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>52921</v>
+        <v>53439</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>117179</v>
+        <v>117005</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>147589</v>
+        <v>145001</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>161508</v>
+        <v>159317</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>84931</v>
+        <v>82762</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>61486</v>
+        <v>59157</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>63017</v>
+        <v>64438</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>71808</v>
+        <v>71159</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>99226</v>
+        <v>95813</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>116735</v>
+        <v>116568</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>141131</v>
+        <v>139643</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>125986</v>
+        <v>126135</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>169753</v>
+        <v>168483</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>186220</v>
+        <v>186365</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>218707</v>
+        <v>218562</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>207749</v>
+        <v>206880</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>278494</v>
+        <v>278129</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>93832</v>
+        <v>91575</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>98843</v>
+        <v>100218</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>109252</v>
+        <v>107957</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>140971</v>
+        <v>141369</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>157044</v>
+        <v>159387</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>188307</v>
+        <v>186466</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>171268</v>
+        <v>171250</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>210163</v>
+        <v>209820</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>237777</v>
+        <v>238377</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>276457</v>
+        <v>276073</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>267192</v>
+        <v>265601</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>340496</v>
+        <v>337712</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>78990</v>
+        <v>79562</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>90571</v>
+        <v>92259</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>74189</v>
+        <v>73584</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>85393</v>
+        <v>86386</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>141417</v>
+        <v>143181</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>152475</v>
+        <v>152007</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>136616</v>
+        <v>138987</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>176645</v>
+        <v>177244</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>233789</v>
+        <v>233691</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>255704</v>
+        <v>255599</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>224347</v>
+        <v>221775</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>273617</v>
+        <v>272616</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>115016</v>
+        <v>115497</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>132120</v>
+        <v>132791</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>108701</v>
+        <v>110486</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>122003</v>
+        <v>121403</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>189197</v>
+        <v>188471</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>201224</v>
+        <v>201254</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>185320</v>
+        <v>189886</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>219481</v>
+        <v>218527</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>292077</v>
+        <v>291052</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>317452</v>
+        <v>317244</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>284771</v>
+        <v>282007</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>327750</v>
+        <v>328061</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>331328</v>
+        <v>332242</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>464872</v>
+        <v>457226</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>434090</v>
+        <v>429382</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>471583</v>
+        <v>472451</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>676770</v>
+        <v>684623</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>851667</v>
+        <v>846866</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>754909</v>
+        <v>748259</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>790044</v>
+        <v>788004</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1030687</v>
+        <v>1033442</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1334458</v>
+        <v>1336493</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1202507</v>
+        <v>1202933</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1285302</v>
+        <v>1282495</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>401821</v>
+        <v>401737</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>551157</v>
+        <v>545805</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>512901</v>
+        <v>512071</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>555480</v>
+        <v>555476</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>772435</v>
+        <v>777696</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>958105</v>
+        <v>955087</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>853753</v>
+        <v>856474</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>870845</v>
+        <v>868579</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1150999</v>
+        <v>1150252</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1473591</v>
+        <v>1472450</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1342899</v>
+        <v>1335438</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1404263</v>
+        <v>1400763</v>
       </c>
     </row>
     <row r="40">
